--- a/output/Белкоопсоюз-Торговый-реестр-Общепит.xlsx
+++ b/output/Белкоопсоюз-Торговый-реестр-Общепит.xlsx
@@ -1478,7 +1478,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>(52.64149004910368, 29.743575349993584)</t>
+          <t>(52.637175981586374, 29.738966756162707)</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>(55.850011855456124, 29.00825683370422)</t>
+          <t>(51.438201327839444, 30.567341207900927)</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>(51.826407349174346, 28.956665849995396)</t>
+          <t>(51.814143616014384, 28.96188793109181)</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>(52.244873899111425, 27.872885649997816)</t>
+          <t>(52.22127336989555, 27.879233336981496)</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>(52.1400040842709, 27.905667135421556)</t>
+          <t>(52.14476511691411, 27.907454802095252)</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>(51.80843286373146, 29.172984022297484)</t>
+          <t>(51.75963334718646, 28.714092368119523)</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>(55.2245656495042, 30.134252950002146)</t>
+          <t>(55.16553204026039, 30.327987960154047)</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>(52.6767338491747, 30.817840100014017)</t>
+          <t>(52.6773854909221, 30.81748789113003)</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>(51.5570098994872, 27.776863449774417)</t>
+          <t>(51.53710763094072, 27.799604120551408)</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>(53.00733606899235, 27.641170393991455)</t>
+          <t>(55.51342454962378, 30.41179254998598)</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>(53.83985742040728, 27.53777134546554)</t>
+          <t>(53.8418946111635, 27.533696842924222)</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>(54.395199219414195, 26.590750291325115)</t>
+          <t>(54.393076015867166, 26.628564044063644)</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>(55.83110535411865, 28.576300678241175)</t>
+          <t>(55.208889214971805, 29.62478180563423)</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>(53.26849499283838, 28.51794480898899)</t>
+          <t>(53.502463142955186, 29.38259257691162)</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>(54.413544236987484, 29.6855330217767)</t>
+          <t>(54.413981400767064, 29.683732582592338)</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -11632,7 +11632,7 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>(55.76566489554844, 27.941622199664444)</t>
+          <t>(55.558793448426336, 28.329894865457906)</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>(55.309077549536454, 27.419547000013065)</t>
+          <t>(55.95371470435253, 29.1736752744459)</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
@@ -13116,7 +13116,7 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>(54.890770913842125, 27.77666588424161)</t>
+          <t>(54.888762022462295, 27.769335653577972)</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>(54.88888057200048, 29.81584225162761)</t>
+          <t>(54.95707779263291, 28.812400866797446)</t>
         </is>
       </c>
       <c r="S242" t="inlineStr">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>(54.9881062994879, 28.840291899988706)</t>
+          <t>(54.88888057200048, 29.81584225162761)</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
@@ -16934,7 +16934,7 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>(52.15177679914177, 30.546483849995116)</t>
+          <t>(55.807661279336514, 29.255796411602155)</t>
         </is>
       </c>
       <c r="S297" t="inlineStr">
@@ -17147,7 +17147,7 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>(54.8949956730306, 28.71351360989451)</t>
+          <t>(54.95333078246637, 28.790336486647494)</t>
         </is>
       </c>
       <c r="S301" t="inlineStr">
@@ -19332,7 +19332,7 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>(52.743564054541245, 27.860311268934446)</t>
+          <t>(54.546611803359745, 26.208509672758005)</t>
         </is>
       </c>
       <c r="S341" t="inlineStr">
@@ -21024,7 +21024,7 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>(54.553346336500525, 25.90734404917978)</t>
+          <t>(54.63413516368687, 26.102376594485932)</t>
         </is>
       </c>
       <c r="S372" t="inlineStr">
@@ -21247,7 +21247,7 @@
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>(54.553346336500525, 25.90734404917978)</t>
+          <t>(54.63413516368687, 26.102376594485932)</t>
         </is>
       </c>
       <c r="S376" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>(53.192337001208436, 24.020010971169132)</t>
+          <t>(53.19576497456798, 24.031209563834697)</t>
         </is>
       </c>
       <c r="S405" t="inlineStr">
@@ -23390,7 +23390,7 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>(53.60123470135642, 25.376288988495432)</t>
+          <t>(53.603606399524104, 25.385488950007364)</t>
         </is>
       </c>
       <c r="S415" t="inlineStr">
@@ -23442,7 +23442,7 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>(53.45994289942213, 25.62651519956172)</t>
+          <t>(53.4530317491201, 25.579074200002413)</t>
         </is>
       </c>
       <c r="S416" t="inlineStr">
@@ -24859,7 +24859,7 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>(52.5517339958936, 24.93007479913547)</t>
+          <t>(54.30800680173313, 26.86346001716225)</t>
         </is>
       </c>
       <c r="S442" t="inlineStr">
@@ -25139,7 +25139,7 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>(52.538873865855095, 24.937551150605273)</t>
+          <t>(52.5517339958936, 24.93007479913547)</t>
         </is>
       </c>
       <c r="S447" t="inlineStr">
@@ -25196,7 +25196,7 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>(54.04034847922385, 27.403999955946393)</t>
+          <t>(52.538873865855095, 24.937551150605273)</t>
         </is>
       </c>
       <c r="S448" t="inlineStr">
@@ -25367,7 +25367,7 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>(52.5517339958936, 24.93007479913547)</t>
+          <t>(54.04034847922385, 27.403999955946393)</t>
         </is>
       </c>
       <c r="S451" t="inlineStr">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>(54.15063464922665, 29.756839849999995)</t>
+          <t>(54.161375848575126, 29.761509442162595)</t>
         </is>
       </c>
       <c r="S458" t="inlineStr">
@@ -25808,7 +25808,7 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>(53.59348128617806, 27.204252294245205)</t>
+          <t>(53.28447055926786, 27.089097999423878)</t>
         </is>
       </c>
       <c r="S459" t="inlineStr">
@@ -26980,7 +26980,7 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>(53.504053385426836, 32.373066167177754)</t>
+          <t>(53.510429573417454, 32.339797990247455)</t>
         </is>
       </c>
       <c r="S480" t="inlineStr">
@@ -27032,7 +27032,7 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>(54.70162968027564, 27.82524811500475)</t>
+          <t>(55.19585094949988, 28.56154710001006)</t>
         </is>
       </c>
       <c r="S481" t="inlineStr">
@@ -27203,7 +27203,7 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>(53.38108324917284, 32.05705594999992)</t>
+          <t>(52.10391915859807, 29.01143099998603)</t>
         </is>
       </c>
       <c r="S484" t="inlineStr">
@@ -27872,7 +27872,7 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>(53.766150349227935, 27.467260999997784)</t>
+          <t>(52.98606911684092, 26.30836904343908)</t>
         </is>
       </c>
       <c r="S496" t="inlineStr">
@@ -27981,7 +27981,7 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>(53.039280397896434, 26.262755349224875)</t>
+          <t>(53.03938604998333, 26.26240709819529)</t>
         </is>
       </c>
       <c r="S498" t="inlineStr">
@@ -28080,7 +28080,7 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>(51.93195260787749, 29.612340865452644)</t>
+          <t>(53.59348128617806, 27.204252294245205)</t>
         </is>
       </c>
       <c r="S500" t="inlineStr">
@@ -28791,7 +28791,7 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>(55.18912783452508, 30.19514975119346)</t>
+          <t>(55.043200149451394, 29.4575109999958)</t>
         </is>
       </c>
       <c r="S513" t="inlineStr">
@@ -28843,7 +28843,7 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>(55.21770441514323, 30.893809628430866)</t>
+          <t>(55.16074862529473, 29.030029734740115)</t>
         </is>
       </c>
       <c r="S514" t="inlineStr">
@@ -29227,7 +29227,7 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>(53.0595038446843, 27.234198195979452)</t>
+          <t>(53.59348128617806, 27.204252294245205)</t>
         </is>
       </c>
       <c r="S521" t="inlineStr">
@@ -29455,7 +29455,7 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>(52.815222971614105, 28.020011464853567)</t>
+          <t>(54.60151159938392, 26.883697350018576)</t>
         </is>
       </c>
       <c r="S525" t="inlineStr">
@@ -29683,7 +29683,7 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>(53.7375560978885, 30.14192221687313)</t>
+          <t>(52.19899145137997, 27.10806736987233)</t>
         </is>
       </c>
       <c r="S529" t="inlineStr">
@@ -29797,7 +29797,7 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>(52.36084059716707, 26.79189474140705)</t>
+          <t>(52.23133524739067, 30.857991817845797)</t>
         </is>
       </c>
       <c r="S531" t="inlineStr">
@@ -29854,7 +29854,7 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>(55.36076577719098, 27.924376793678952)</t>
+          <t>(55.41251001615832, 28.625964581695293)</t>
         </is>
       </c>
       <c r="S532" t="inlineStr">
@@ -30072,7 +30072,7 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>(52.47022024915413, 26.78669539999733)</t>
+          <t>(52.509317177198355, 26.755862184680595)</t>
         </is>
       </c>
       <c r="S536" t="inlineStr">
@@ -30300,7 +30300,7 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>(52.25493520908484, 26.794684146074452)</t>
+          <t>(52.25464216102278, 26.79421587535407)</t>
         </is>
       </c>
       <c r="S540" t="inlineStr">
@@ -30357,7 +30357,7 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>(52.36816154913242, 26.47996039999655)</t>
+          <t>(52.26593324913344, 30.185847199985343)</t>
         </is>
       </c>
       <c r="S541" t="inlineStr">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>(52.209822889099165, 27.468508878357802)</t>
+          <t>(52.25423934989437, 27.40346815015896)</t>
         </is>
       </c>
       <c r="S546" t="inlineStr">
@@ -31212,7 +31212,7 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>(54.60151159938392, 26.883697350018576)</t>
+          <t>(52.815222971614105, 28.020011464853567)</t>
         </is>
       </c>
       <c r="S556" t="inlineStr">
@@ -31269,7 +31269,7 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>(52.20616447671609, 27.00922817167555)</t>
+          <t>(52.20620506454692, 27.008573767868327)</t>
         </is>
       </c>
       <c r="S557" t="inlineStr">
@@ -31440,7 +31440,7 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>(52.244340452152656, 26.8481252918528)</t>
+          <t>(52.25040648868347, 26.828467520406573)</t>
         </is>
       </c>
       <c r="S560" t="inlineStr">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>(54.011807349220426, 30.174164399997373)</t>
+          <t>(52.19899145137997, 27.10806736987233)</t>
         </is>
       </c>
       <c r="S561" t="inlineStr">
@@ -32352,7 +32352,7 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>(52.27159739912196, 23.769634700002413)</t>
+          <t>(52.326134272630895, 23.783761356230077)</t>
         </is>
       </c>
       <c r="S576" t="inlineStr">
@@ -32466,7 +32466,7 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>(52.390159451768746, 23.83655744954855)</t>
+          <t>(52.151650349010914, 23.691822279974424)</t>
         </is>
       </c>
       <c r="S578" t="inlineStr">
@@ -33135,7 +33135,7 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>(52.216650448414704, 27.48085543172571)</t>
+          <t>(52.22148374926747, 27.503221249988325)</t>
         </is>
       </c>
       <c r="S590" t="inlineStr">
@@ -33871,7 +33871,7 @@
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>(52.22292257318768, 26.94653891841416)</t>
+          <t>(53.68284671730811, 23.9757990540441)</t>
         </is>
       </c>
       <c r="S603" t="inlineStr">
@@ -34436,7 +34436,7 @@
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>(52.17662987888558, 25.554524376544926)</t>
+          <t>(52.12384494918477, 28.174134800001458)</t>
         </is>
       </c>
       <c r="S613" t="inlineStr">
@@ -36654,7 +36654,7 @@
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>(51.8790841553491, 26.13655227189404)</t>
+          <t>(51.92690910950788, 26.297236638511244)</t>
         </is>
       </c>
       <c r="S652" t="inlineStr">
@@ -37142,7 +37142,7 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>(55.146179349506376, 27.20588694999206)</t>
+          <t>(54.44822591154334, 27.2017057194683)</t>
         </is>
       </c>
       <c r="S661" t="inlineStr">
@@ -37313,7 +37313,7 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>(52.25693724820623, 26.380302817108948)</t>
+          <t>(52.24992728104266, 26.358360980229083)</t>
         </is>
       </c>
       <c r="S664" t="inlineStr">
@@ -37469,7 +37469,7 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>(52.637175981586374, 29.738966756162707)</t>
+          <t>(52.64149004910368, 29.743575349993584)</t>
         </is>
       </c>
       <c r="S667" t="inlineStr">
@@ -38368,7 +38368,7 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>(52.62939788752759, 29.757789633861513)</t>
+          <t>(52.637175981586374, 29.738966756162707)</t>
         </is>
       </c>
       <c r="S684" t="inlineStr">
@@ -38591,7 +38591,7 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>(54.43898399928627, 27.87838965000322)</t>
+          <t>(55.530785135442635, 27.656998073547644)</t>
         </is>
       </c>
       <c r="S688" t="inlineStr">
@@ -40365,7 +40365,7 @@
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>(52.776171820442165, 27.008323454854217)</t>
+          <t>(52.73205281732358, 26.942480693497824)</t>
         </is>
       </c>
       <c r="S720" t="inlineStr">
@@ -40759,7 +40759,7 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>(54.41628077666824, 28.196969303356695)</t>
+          <t>(54.50103504931423, 28.151253650000932)</t>
         </is>
       </c>
       <c r="S727" t="inlineStr">
@@ -40925,7 +40925,7 @@
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>(52.97297219915026, 29.933268150030482)</t>
+          <t>(53.655984825730975, 30.23671768768123)</t>
         </is>
       </c>
       <c r="S730" t="inlineStr">
@@ -41361,7 +41361,7 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>(52.73696243269509, 26.442948733987578)</t>
+          <t>(54.50039584689815, 28.141019429268518)</t>
         </is>
       </c>
       <c r="S738" t="inlineStr">
@@ -41911,7 +41911,7 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>(53.526342164021386, 30.220716765272876)</t>
+          <t>(53.526137023364676, 30.221268346993437)</t>
         </is>
       </c>
       <c r="S748" t="inlineStr">
@@ -43328,7 +43328,7 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>(52.02857698559277, 29.228154963922787)</t>
+          <t>(52.08149444525555, 29.187131972388013)</t>
         </is>
       </c>
       <c r="S774" t="inlineStr">
@@ -43442,7 +43442,7 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>(51.774643713467384, 24.039510315240115)</t>
+          <t>(51.787170122354965, 24.05334576564307)</t>
         </is>
       </c>
       <c r="S776" t="inlineStr">
@@ -43499,7 +43499,7 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>(53.33363324385602, 29.567941277170366)</t>
+          <t>(52.10765079555507, 25.627602873340624)</t>
         </is>
       </c>
       <c r="S777" t="inlineStr">
@@ -43556,7 +43556,7 @@
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>(53.24658019912628, 29.41661505001381)</t>
+          <t>(53.34425008124936, 26.416693915422197)</t>
         </is>
       </c>
       <c r="S778" t="inlineStr">
@@ -43774,7 +43774,7 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>(54.2093562633729, 30.291845018697348)</t>
+          <t>(54.20457989782732, 30.297700332452383)</t>
         </is>
       </c>
       <c r="S782" t="inlineStr">
@@ -44401,7 +44401,7 @@
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>(54.21154903094127, 30.23682657854087)</t>
+          <t>(54.207174833261625, 30.288356012945314)</t>
         </is>
       </c>
       <c r="S793" t="inlineStr">
@@ -44619,7 +44619,7 @@
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>(53.71061970961866, 31.726136704795593)</t>
+          <t>(53.709989612436, 31.725835264061924)</t>
         </is>
       </c>
       <c r="S797" t="inlineStr">
@@ -45013,7 +45013,7 @@
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>(55.3869483280836, 30.085898417853862)</t>
+          <t>(55.334674199562265, 30.70482704998537)</t>
         </is>
       </c>
       <c r="S804" t="inlineStr">
@@ -45174,7 +45174,7 @@
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>(55.24497162317204, 29.000457433527423)</t>
+          <t>(54.92947934944379, 30.342111100005198)</t>
         </is>
       </c>
       <c r="S807" t="inlineStr">
@@ -45283,7 +45283,7 @@
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>(53.592862999192405, 25.979068500024336)</t>
+          <t>(53.81309087694192, 27.398578339558515)</t>
         </is>
       </c>
       <c r="S809" t="inlineStr">
@@ -45335,7 +45335,7 @@
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>(54.301263772338814, 27.73203521619443)</t>
+          <t>(53.82193875208248, 27.459842332420774)</t>
         </is>
       </c>
       <c r="S810" t="inlineStr">
@@ -45895,7 +45895,7 @@
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>(52.88714094831604, 28.70345106779084)</t>
+          <t>(52.89185056384769, 28.68206133531474)</t>
         </is>
       </c>
       <c r="S820" t="inlineStr">
@@ -48064,6 +48064,16 @@
       <c r="I859" t="inlineStr">
         <is>
           <t xml:space="preserve">13/1 </t>
+        </is>
+      </c>
+      <c r="R859" t="inlineStr">
+        <is>
+          <t>(53.57325430187938, 31.365651150911646)</t>
+        </is>
+      </c>
+      <c r="S859" t="inlineStr">
+        <is>
+          <t>(True)</t>
         </is>
       </c>
     </row>

--- a/output/Белкоопсоюз-Торговый-реестр-Общепит.xlsx
+++ b/output/Белкоопсоюз-Торговый-реестр-Общепит.xlsx
@@ -861,7 +861,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>(52.91253837066736, 30.323890655251695)</t>
+          <t>(52.913919165164906, 30.324543203618546)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>(52.882066424540554, 30.03635278797673)</t>
+          <t>(52.88218582429315, 30.03746056993172)</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>(52.88515968707402, 29.550247820479605)</t>
+          <t>(52.88507564843726, 29.550903507793265)</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>(52.637175981586374, 29.738966756162707)</t>
+          <t>(52.63802237594013, 29.751564564777386)</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>(55.16553204026039, 30.327987960154047)</t>
+          <t>(54.0427290528718, 28.184757125447018)</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>(55.16553204026039, 30.327987960154047)</t>
+          <t>(54.0427290528718, 28.184757125447018)</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>(53.87733562964381, 30.34384558430707)</t>
+          <t>(52.63680915743398, 28.89081679591387)</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>(52.69925745486478, 30.71463090564301)</t>
+          <t>(52.64710226387904, 28.882124514919024)</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1934,12 +1934,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>(52.342926282388646, 31.521332620446703)</t>
+          <t>(52.41282728477062, 31.32104697232421)</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>(55.20922080171928, 30.258195083566186)</t>
+          <t>(55.17192514950098, 29.00441619998928)</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2100,12 +2100,12 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>(52.6989620070393, 30.715493892428544)</t>
+          <t>(52.64580755400801, 28.883428377638594)</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>(52.541984056048456, 29.085727529158955)</t>
+          <t>(53.1962460991397, 29.491744050009817)</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>(55.850011855456124, 29.00825683370422)</t>
+          <t>(51.43495869954884, 30.55805879987393)</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>(51.7828751020702, 30.268593119070637)</t>
+          <t>(51.782362649188606, 30.26438150000158)</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>(54.03065018259217, 28.2051355502276)</t>
+          <t>(54.02962820776872, 28.20587559460131)</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>(51.438201327839444, 30.567341207900927)</t>
+          <t>(51.43495869954884, 30.55805879987393)</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>(51.44020794921145, 30.56917004999419)</t>
+          <t>(51.78223727572237, 30.272749466435453)</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>(51.4386287486473, 30.567815683574295)</t>
+          <t>(51.77864249578229, 30.277761216534486)</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>(53.101079382381855, 29.732672766551293)</t>
+          <t>(53.10099403133642, 29.73393636488184)</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>(51.814143616014384, 28.96188793109181)</t>
+          <t>(51.826407349174346, 28.956665849995396)</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>(53.26658047072437, 30.419206277765294)</t>
+          <t>(53.08251594898222, 30.053924299861947)</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>(53.07377318648858, 30.051469840486526)</t>
+          <t>(53.07400886764836, 30.05195821542331)</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>(52.39529879913016, 28.136908449989598)</t>
+          <t>(52.4510412069127, 28.145462319391633)</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>(52.22127336989555, 27.879233336981496)</t>
+          <t>(52.244873899111425, 27.872885649997816)</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>(53.080773022254526, 30.518210901102105)</t>
+          <t>(53.07116132258012, 29.987415013878955)</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>(52.13321131307396, 28.48884887055893)</t>
+          <t>(52.1331049311235, 28.489836495218192)</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>(52.14476511691411, 27.907454802095252)</t>
+          <t>(52.1400040842709, 27.905667135421556)</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>(52.2184204516776, 27.86687557631507)</t>
+          <t>(52.210130449126446, 27.86605535000333)</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>(52.07114409798206, 27.730681567655072)</t>
+          <t>(52.07178417957641, 27.730334063476064)</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>(51.75963334718646, 28.714092368119523)</t>
+          <t>(51.8089039503201, 29.1729988900292)</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4375,16 +4375,6 @@
           <t xml:space="preserve">4 </t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>(52.714077153491964, 30.571340223398522)</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>(True)</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4776,12 +4766,12 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>(52.698692081241994, 30.71571591422507)</t>
+          <t>(52.644796249125065, 28.882520849994194)</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -4890,12 +4880,12 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>(53.68503999921382, 23.865780050001018)</t>
+          <t>(52.6617871501623, 28.888207132878538)</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4937,12 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>(51.66715541501334, 30.435323419972704)</t>
+          <t>(51.80990072656563, 30.2791828129256)</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5051,12 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>(52.70030909894127, 30.71360586652702)</t>
+          <t>(52.644796249125065, 28.882520849994194)</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5108,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>(52.79983406713114, 30.0902582123238)</t>
+          <t>(52.64636836118911, 28.88394920383241)</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -5175,7 +5165,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>(53.892584144623385, 27.552373890741965)</t>
+          <t>(52.64468612216784, 28.880843974419488)</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -5232,7 +5222,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>(55.16553204026039, 30.327987960154047)</t>
+          <t>(54.0427290528718, 28.184757125447018)</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -5341,7 +5331,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>(52.67135779915652, 30.818132500047724)</t>
+          <t>(52.652508199248956, 28.88329335000237)</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -5398,12 +5388,12 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>(53.66302701779833, 23.805860610837648)</t>
+          <t>(52.63531564497309, 28.8833057344909)</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5445,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>(52.66548555477463, 28.883409277937744)</t>
+          <t>(52.63252215380843, 28.886149417558826)</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -5512,7 +5502,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>(55.16553204026039, 30.327987960154047)</t>
+          <t>(54.0427290528718, 28.184757125447018)</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -5678,7 +5668,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>(52.79983406713114, 30.0902582123238)</t>
+          <t>(52.64636836118911, 28.88394920383241)</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -5849,7 +5839,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>(51.79651949918594, 28.3244994000003)</t>
+          <t>(51.79646769916042, 28.325077699999067)</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -5963,7 +5953,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>(52.6773854909221, 30.81748789113003)</t>
+          <t>(52.677746580013356, 30.81572786368427)</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -6362,12 +6352,12 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>(52.23319231309629, 28.321497277549504)</t>
+          <t>(52.12586169954187, 28.494879749996734)</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6409,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>(53.13243703665716, 30.798009118498367)</t>
+          <t>(53.133662342776184, 30.79778948475931)</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -6590,7 +6580,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>(51.78692496639838, 28.327864856303485)</t>
+          <t>(51.786866861137845, 28.3275874721898)</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -6761,7 +6751,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>(53.13243703665716, 30.798009118498367)</t>
+          <t>(53.133662342776184, 30.79778948475931)</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -6875,7 +6865,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>(53.13243703665716, 30.798009118498367)</t>
+          <t>(53.133662342776184, 30.79778948475931)</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -6932,7 +6922,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>(51.785293574488, 27.73528426989989)</t>
+          <t>(51.836589949177274, 27.799253149982892)</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -7103,7 +7093,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>(51.53710763094072, 27.799604120551408)</t>
+          <t>(51.5570098994872, 27.776863449774417)</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -7212,7 +7202,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>(55.51342454962378, 30.41179254998598)</t>
+          <t>(52.3842797931419, 29.349361617180612)</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -7269,7 +7259,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>(52.981124174178426, 27.3357300128107)</t>
+          <t>(53.02183527320224, 27.540631862901947)</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -7326,7 +7316,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>(53.8418946111635, 27.533696842924222)</t>
+          <t>(53.04798804910862, 27.620974900008257)</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -7628,12 +7618,12 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>(54.31573268165799, 29.139144743208533)</t>
+          <t>(53.90077813188226, 27.552422669820654)</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -8022,7 +8012,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>(54.308224500454905, 26.843749100023334)</t>
+          <t>(54.30600035294726, 26.846092864308584)</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -8077,16 +8067,6 @@
           <t xml:space="preserve">1 </t>
         </is>
       </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>(54.374163792945716, 26.65847899001402)</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>(True)</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8193,7 +8173,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>(52.04390522555422, 29.279860771463287)</t>
+          <t>(54.33346882682511, 26.82670175338315)</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
@@ -8478,7 +8458,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>(54.23806574572589, 26.660772680323294)</t>
+          <t>(54.12419919924708, 26.052678349995453)</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -8592,7 +8572,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>(54.285277274383745, 26.813695581513116)</t>
+          <t>(54.28578177910673, 26.816596687111492)</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -8763,7 +8743,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>(54.393076015867166, 26.628564044063644)</t>
+          <t>(54.395199219414195, 26.590750291325115)</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -8820,7 +8800,7 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>(54.29006195977446, 26.962027876369493)</t>
+          <t>(54.28522420362176, 26.952583590961986)</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -8877,7 +8857,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>(54.151497405632696, 26.92153757508014)</t>
+          <t>(54.16254494925307, 26.922113949991846)</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -8986,7 +8966,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>(55.056306949465466, 30.55641625000267)</t>
+          <t>(53.84507584919223, 29.15721625000532)</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -9043,7 +9023,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>(55.208889214971805, 29.62478180563423)</t>
+          <t>(54.33333734929327, 26.58518219997569)</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -9095,7 +9075,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>(53.502463142955186, 29.38259257691162)</t>
+          <t>(53.80456676533724, 28.841464714803312)</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -9323,12 +9303,12 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>(54.87809104377062, 27.73884703770011)</t>
+          <t>(53.844068674546264, 28.998296784311936)</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9588,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>(53.70369003018973, 28.414795789775702)</t>
+          <t>(53.7053905493013, 28.414530699847244)</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
@@ -9665,7 +9645,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>(53.831249890302715, 28.99963890690107)</t>
+          <t>(53.83059609945708, 29.00001029999728)</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -9712,7 +9692,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>(55.732745078539104, 27.15685959750319)</t>
+          <t>(53.84507584919223, 29.15721625000532)</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -9826,7 +9806,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>(53.47894416371141, 26.74168731054943)</t>
+          <t>(53.47797288454942, 26.74149551728594)</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -10101,7 +10081,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>(53.83438158866925, 27.863932487185025)</t>
+          <t>(53.52547646883704, 26.699232338861055)</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -10158,7 +10138,7 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>(53.48935292242057, 26.732450219369124)</t>
+          <t>(53.48756949928275, 26.729037000042712)</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
@@ -10215,7 +10195,7 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>(53.48935292242057, 26.732450219369124)</t>
+          <t>(53.48756949928275, 26.729037000042712)</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
@@ -10329,7 +10309,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>(53.48296699915107, 26.721917500002426)</t>
+          <t>(53.48206670655977, 26.719806403608978)</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
@@ -10594,7 +10574,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>(53.67908846582925, 27.137837046637152)</t>
+          <t>(53.67680064685758, 27.132257083250146)</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -10651,7 +10631,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>(54.81354001147113, 29.70552537915698)</t>
+          <t>(54.813569799386876, 29.70863451661738)</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -10708,7 +10688,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>(54.81354001147113, 29.70552537915698)</t>
+          <t>(54.813569799386876, 29.70863451661738)</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -10931,7 +10911,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>(54.81354001147113, 29.70552537915698)</t>
+          <t>(54.813569799386876, 29.70863451661738)</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
@@ -11196,7 +11176,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>(54.413981400767064, 29.683732582592338)</t>
+          <t>(54.41064132613542, 29.69313784370533)</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
@@ -11253,7 +11233,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>(54.413981400767064, 29.683732582592338)</t>
+          <t>(54.41064132613542, 29.69313784370533)</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -11310,7 +11290,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>(54.413981400767064, 29.683732582592338)</t>
+          <t>(54.41064132613542, 29.69313784370533)</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
@@ -11481,7 +11461,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>(54.57650868003681, 30.672485548962406)</t>
+          <t>(54.57698844581474, 30.67364564789098)</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -11585,7 +11565,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>(55.023383493958285, 27.785936805048333)</t>
+          <t>(55.02285938264955, 27.787454203642405)</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
@@ -11632,7 +11612,7 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>(55.558793448426336, 28.329894865457906)</t>
+          <t>(55.78458052494723, 27.96592526623293)</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
@@ -11689,7 +11669,7 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>(55.369447479738106, 27.46821528458064)</t>
+          <t>(55.36890609956177, 27.467938199990257)</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
@@ -11897,7 +11877,7 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>(55.76354975003585, 27.938611599944483)</t>
+          <t>(55.76354345963413, 27.937883663085653)</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
@@ -12462,7 +12442,7 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>(55.76664483106231, 27.93895512582221)</t>
+          <t>(55.764201834442346, 27.941730746811206)</t>
         </is>
       </c>
       <c r="S216" t="inlineStr">
@@ -12898,7 +12878,7 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>(55.811629049963884, 28.302192100004117)</t>
+          <t>(55.807530825228966, 28.317719331797175)</t>
         </is>
       </c>
       <c r="S224" t="inlineStr">
@@ -13116,7 +13096,7 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>(54.888762022462295, 27.769335653577972)</t>
+          <t>(54.89729599715827, 27.742475822448164)</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
@@ -13173,7 +13153,7 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>(55.921885929867045, 27.749731841454434)</t>
+          <t>(55.90303662358591, 27.889836489783097)</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
@@ -13287,7 +13267,7 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>(55.782485061086035, 27.93447416963697)</t>
+          <t>(55.759620687547866, 27.947959703668435)</t>
         </is>
       </c>
       <c r="S231" t="inlineStr">
@@ -13676,7 +13656,7 @@
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>(54.86067644407102, 29.16037568468639)</t>
+          <t>(54.860826089254104, 29.160429600731874)</t>
         </is>
       </c>
       <c r="S238" t="inlineStr">
@@ -13894,7 +13874,7 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>(54.95707779263291, 28.812400866797446)</t>
+          <t>(53.72610649916067, 30.343448349999996)</t>
         </is>
       </c>
       <c r="S242" t="inlineStr">
@@ -14568,7 +14548,7 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>(55.101864382245736, 26.850205031887796)</t>
+          <t>(55.09941804952387, 26.852345399984888)</t>
         </is>
       </c>
       <c r="S254" t="inlineStr">
@@ -15066,7 +15046,7 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>(55.11451237280884, 26.837000137500105)</t>
+          <t>(55.114282033455254, 26.836720505784076)</t>
         </is>
       </c>
       <c r="S263" t="inlineStr">
@@ -15574,7 +15554,7 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>(55.07418359959789, 27.252582649990504)</t>
+          <t>(55.06646114948139, 27.238458849997066)</t>
         </is>
       </c>
       <c r="S272" t="inlineStr">
@@ -16134,7 +16114,7 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>(55.369447479738106, 27.46821528458064)</t>
+          <t>(55.36890609956177, 27.467938199990257)</t>
         </is>
       </c>
       <c r="S282" t="inlineStr">
@@ -16191,7 +16171,7 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>(55.360471931478465, 27.47427186608422)</t>
+          <t>(55.35951214504621, 27.479421657137262)</t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
@@ -16659,7 +16639,7 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>(54.88888057200048, 29.81584225162761)</t>
+          <t>(53.72610649916067, 30.343448349999996)</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
@@ -16763,12 +16743,12 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>(54.85545752487813, 28.73581682858742)</t>
+          <t>(54.87983427370497, 28.718727666372864)</t>
         </is>
       </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -16820,7 +16800,7 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>(55.906989318423896, 28.813364155428342)</t>
+          <t>(55.90589404982385, 28.813008000043165)</t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
@@ -16877,7 +16857,7 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>(55.906989318423896, 28.813364155428342)</t>
+          <t>(55.90589404982385, 28.813008000043165)</t>
         </is>
       </c>
       <c r="S296" t="inlineStr">
@@ -16934,7 +16914,7 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>(55.807661279336514, 29.255796411602155)</t>
+          <t>(53.83659345637651, 28.957433184334498)</t>
         </is>
       </c>
       <c r="S297" t="inlineStr">
@@ -17147,7 +17127,7 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>(54.95333078246637, 28.790336486647494)</t>
+          <t>(54.89291450799108, 28.737544070025447)</t>
         </is>
       </c>
       <c r="S301" t="inlineStr">
@@ -17256,7 +17236,7 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>(55.906989318423896, 28.813364155428342)</t>
+          <t>(55.90589404982385, 28.813008000043165)</t>
         </is>
       </c>
       <c r="S303" t="inlineStr">
@@ -17308,7 +17288,7 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>(54.88343532219764, 28.713842147128602)</t>
+          <t>(54.88472285489681, 28.718373771395388)</t>
         </is>
       </c>
       <c r="S304" t="inlineStr">
@@ -17360,7 +17340,7 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>(54.88712824813072, 28.69228893281833)</t>
+          <t>(54.88727620477384, 28.692621597520723)</t>
         </is>
       </c>
       <c r="S305" t="inlineStr">
@@ -17412,7 +17392,7 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>(55.906989318423896, 28.813364155428342)</t>
+          <t>(55.90589404982385, 28.813008000043165)</t>
         </is>
       </c>
       <c r="S306" t="inlineStr">
@@ -17464,7 +17444,7 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>(55.89775692691905, 28.812515205440192)</t>
+          <t>(55.88450284454667, 28.818370838478224)</t>
         </is>
       </c>
       <c r="S307" t="inlineStr">
@@ -17521,7 +17501,7 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>(54.88712824813072, 28.69228893281833)</t>
+          <t>(54.88727620477384, 28.692621597520723)</t>
         </is>
       </c>
       <c r="S308" t="inlineStr">
@@ -17739,7 +17719,7 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>(55.906989318423896, 28.813364155428342)</t>
+          <t>(55.90589404982385, 28.813008000043165)</t>
         </is>
       </c>
       <c r="S312" t="inlineStr">
@@ -17791,7 +17771,7 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>(55.428889605237984, 28.587568804460187)</t>
+          <t>(55.42293507573408, 28.590451143889194)</t>
         </is>
       </c>
       <c r="S313" t="inlineStr">
@@ -17843,7 +17823,7 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>(54.88420384943134, 28.686510800010637)</t>
+          <t>(54.88361370712362, 28.686428643586762)</t>
         </is>
       </c>
       <c r="S314" t="inlineStr">
@@ -17957,7 +17937,7 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>(54.886197199418916, 28.685601350019482)</t>
+          <t>(54.88420384943134, 28.686510800010637)</t>
         </is>
       </c>
       <c r="S316" t="inlineStr">
@@ -18227,7 +18207,7 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>(54.89073184328341, 28.917786529921916)</t>
+          <t>(54.89478147059388, 28.93422262545117)</t>
         </is>
       </c>
       <c r="S321" t="inlineStr">
@@ -18279,7 +18259,7 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>(54.88888057200048, 29.81584225162761)</t>
+          <t>(53.72610649916067, 30.343448349999996)</t>
         </is>
       </c>
       <c r="S322" t="inlineStr">
@@ -19332,7 +19312,7 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>(54.546611803359745, 26.208509672758005)</t>
+          <t>(52.74575435240187, 27.860883023014313)</t>
         </is>
       </c>
       <c r="S341" t="inlineStr">
@@ -19545,7 +19525,7 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>(54.41078333242112, 26.604487979829536)</t>
+          <t>(52.673225149120384, 28.2487890000113)</t>
         </is>
       </c>
       <c r="S345" t="inlineStr">
@@ -19716,7 +19696,7 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>(52.442072435257025, 27.228416693742815)</t>
+          <t>(52.524990999129194, 27.145537949996037)</t>
         </is>
       </c>
       <c r="S348" t="inlineStr">
@@ -19882,7 +19862,7 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>(52.14053977915995, 26.11025066363231)</t>
+          <t>(52.14042434223808, 26.110515438237034)</t>
         </is>
       </c>
       <c r="S351" t="inlineStr">
@@ -20043,7 +20023,7 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>(54.52057731793531, 30.39100054325231)</t>
+          <t>(55.2047630370896, 30.209154124625428)</t>
         </is>
       </c>
       <c r="S354" t="inlineStr">
@@ -20380,7 +20360,7 @@
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>(53.59939380017493, 24.736607072936895)</t>
+          <t>(53.59909914917583, 24.736264250001692)</t>
         </is>
       </c>
       <c r="S360" t="inlineStr">
@@ -20437,12 +20417,12 @@
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>(53.78045007941457, 24.847781788530046)</t>
+          <t>(53.613211163735876, 24.73410804884175)</t>
         </is>
       </c>
       <c r="S361" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -20593,7 +20573,7 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>(54.23934671175054, 25.30244411251501)</t>
+          <t>(54.24553550376581, 25.30029802513677)</t>
         </is>
       </c>
       <c r="S364" t="inlineStr">
@@ -21022,16 +21002,6 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="R372" t="inlineStr">
-        <is>
-          <t>(54.63413516368687, 26.102376594485932)</t>
-        </is>
-      </c>
-      <c r="S372" t="inlineStr">
-        <is>
-          <t>(False)</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -21245,16 +21215,6 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="R376" t="inlineStr">
-        <is>
-          <t>(54.63413516368687, 26.102376594485932)</t>
-        </is>
-      </c>
-      <c r="S376" t="inlineStr">
-        <is>
-          <t>(False)</t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -21589,7 +21549,7 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>(53.038733797982026, 24.090297383112883)</t>
+          <t>(53.038283414035746, 24.09090950744673)</t>
         </is>
       </c>
       <c r="S382" t="inlineStr">
@@ -21750,7 +21710,7 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>(53.066266149598796, 25.339866799881452)</t>
+          <t>(53.0646529443591, 25.342037527378082)</t>
         </is>
       </c>
       <c r="S385" t="inlineStr">
@@ -22218,7 +22178,7 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>(53.192337001208436, 24.020010971169132)</t>
+          <t>(53.19576497456798, 24.031209563834697)</t>
         </is>
       </c>
       <c r="S394" t="inlineStr">
@@ -22726,12 +22686,12 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>(53.88802647702818, 26.74090960274065)</t>
+          <t>(54.089347099231986, 26.520336549988492)</t>
         </is>
       </c>
       <c r="S403" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -22783,7 +22743,7 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>(55.20973103452389, 26.982297130670624)</t>
+          <t>(54.07455539922995, 26.51791044998423)</t>
         </is>
       </c>
       <c r="S404" t="inlineStr">
@@ -22944,7 +22904,7 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>(53.595197291898984, 25.381101532404568)</t>
+          <t>(53.60123470135642, 25.376288988495432)</t>
         </is>
       </c>
       <c r="S407" t="inlineStr">
@@ -23058,7 +23018,7 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>(53.19195544914459, 24.02070090001043)</t>
+          <t>(53.19188065501326, 24.022895523321004)</t>
         </is>
       </c>
       <c r="S409" t="inlineStr">
@@ -23172,12 +23132,12 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>(53.87895343292974, 26.7492976591953)</t>
+          <t>(54.089207899825865, 26.523746809016373)</t>
         </is>
       </c>
       <c r="S411" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -23390,7 +23350,7 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>(53.603606399524104, 25.385488950007364)</t>
+          <t>(53.60123470135642, 25.376288988495432)</t>
         </is>
       </c>
       <c r="S415" t="inlineStr">
@@ -23442,7 +23402,7 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>(53.4530317491201, 25.579074200002413)</t>
+          <t>(53.452111226394585, 25.572821222998094)</t>
         </is>
       </c>
       <c r="S416" t="inlineStr">
@@ -23499,7 +23459,7 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>(53.038733797982026, 24.090297383112883)</t>
+          <t>(53.038283414035746, 24.09090950744673)</t>
         </is>
       </c>
       <c r="S417" t="inlineStr">
@@ -23774,7 +23734,7 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>(53.777760622301564, 24.839499906572023)</t>
+          <t>(53.603784781595316, 24.742209729591277)</t>
         </is>
       </c>
       <c r="S422" t="inlineStr">
@@ -23883,7 +23843,7 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>(53.45994289942213, 25.62651519956172)</t>
+          <t>(53.452111226394585, 25.572821222998094)</t>
         </is>
       </c>
       <c r="S424" t="inlineStr">
@@ -23940,7 +23900,7 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>(53.160280760810814, 24.463598548409404)</t>
+          <t>(53.160031021221485, 24.464004859956898)</t>
         </is>
       </c>
       <c r="S425" t="inlineStr">
@@ -24044,7 +24004,7 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>(53.160280760810814, 24.463598548409404)</t>
+          <t>(53.160031021221485, 24.464004859956898)</t>
         </is>
       </c>
       <c r="S427" t="inlineStr">
@@ -24158,7 +24118,7 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>(53.46561455692998, 25.404441632613153)</t>
+          <t>(53.46548991404615, 25.404761776695153)</t>
         </is>
       </c>
       <c r="S429" t="inlineStr">
@@ -24475,7 +24435,7 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>(53.78721384917506, 24.847926700006383)</t>
+          <t>(53.60654309369317, 24.74209087658569)</t>
         </is>
       </c>
       <c r="S435" t="inlineStr">
@@ -24532,7 +24492,7 @@
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>(53.777760622301564, 24.839499906572023)</t>
+          <t>(53.603784781595316, 24.742209729591277)</t>
         </is>
       </c>
       <c r="S436" t="inlineStr">
@@ -24589,7 +24549,7 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>(52.1026233579668, 26.05765244512331)</t>
+          <t>(53.146189349872174, 25.866814000009793)</t>
         </is>
       </c>
       <c r="S437" t="inlineStr">
@@ -24745,7 +24705,7 @@
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>(53.12383483860966, 26.01477336707645)</t>
+          <t>(53.12441615644045, 26.016866912705126)</t>
         </is>
       </c>
       <c r="S440" t="inlineStr">
@@ -24802,12 +24762,12 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>(53.179153975007225, 29.062887666711003)</t>
+          <t>(53.17383443369173, 25.925290454670055)</t>
         </is>
       </c>
       <c r="S441" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -24859,7 +24819,7 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>(54.30800680173313, 26.86346001716225)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S442" t="inlineStr">
@@ -25025,7 +24985,7 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>(54.04034847922385, 27.403999955946393)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S445" t="inlineStr">
@@ -25139,7 +25099,7 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>(52.5517339958936, 24.93007479913547)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S447" t="inlineStr">
@@ -25196,7 +25156,7 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>(52.538873865855095, 24.937551150605273)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S448" t="inlineStr">
@@ -25367,7 +25327,7 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>(54.04034847922385, 27.403999955946393)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S451" t="inlineStr">
@@ -25481,7 +25441,7 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>(54.30800680173313, 26.86346001716225)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S453" t="inlineStr">
@@ -25538,7 +25498,7 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>(54.05330039920273, 28.084316050001174)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S454" t="inlineStr">
@@ -25595,7 +25555,7 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>(54.05330039920273, 28.084316050001174)</t>
+          <t>(52.30253993363902, 24.356474296480464)</t>
         </is>
       </c>
       <c r="S455" t="inlineStr">
@@ -25652,7 +25612,7 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>(52.53394463265095, 24.984547295728834)</t>
+          <t>(52.53434705524082, 24.98513793782997)</t>
         </is>
       </c>
       <c r="S456" t="inlineStr">
@@ -25756,7 +25716,7 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>(54.161375848575126, 29.761509442162595)</t>
+          <t>(54.15063464922665, 29.756839849999995)</t>
         </is>
       </c>
       <c r="S458" t="inlineStr">
@@ -25808,7 +25768,7 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>(53.28447055926786, 27.089097999423878)</t>
+          <t>(53.075282845701416, 27.225204954215926)</t>
         </is>
       </c>
       <c r="S459" t="inlineStr">
@@ -26368,7 +26328,7 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>(53.99034017051529, 29.719151526941474)</t>
+          <t>(53.990676899247056, 29.718392299892866)</t>
         </is>
       </c>
       <c r="S469" t="inlineStr">
@@ -26757,7 +26717,7 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>(53.40925849913323, 32.5916009000136)</t>
+          <t>(53.40972560057091, 32.59071671757321)</t>
         </is>
       </c>
       <c r="S476" t="inlineStr">
@@ -26814,7 +26774,7 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>(53.411869249189486, 32.57282075000083)</t>
+          <t>(53.41363833184802, 32.571019907368374)</t>
         </is>
       </c>
       <c r="S477" t="inlineStr">
@@ -26871,7 +26831,7 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>(53.412764952183416, 32.59514611798579)</t>
+          <t>(53.41310389922635, 32.59526300007031)</t>
         </is>
       </c>
       <c r="S478" t="inlineStr">
@@ -26928,7 +26888,7 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>(53.413031320937186, 32.589348964629345)</t>
+          <t>(53.4131821491301, 32.58973055001018)</t>
         </is>
       </c>
       <c r="S479" t="inlineStr">
@@ -26980,7 +26940,7 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>(53.510429573417454, 32.339797990247455)</t>
+          <t>(53.51027645097573, 32.36875881977229)</t>
         </is>
       </c>
       <c r="S480" t="inlineStr">
@@ -27032,7 +26992,7 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>(55.19585094949988, 28.56154710001006)</t>
+          <t>(52.56216429850232, 31.52320443551513)</t>
         </is>
       </c>
       <c r="S481" t="inlineStr">
@@ -27089,12 +27049,12 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>(52.33634297016376, 24.24699984679139)</t>
+          <t>(52.198414168563815, 24.357862611811576)</t>
         </is>
       </c>
       <c r="S482" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -27146,7 +27106,7 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>(53.410966531912464, 32.582276102113795)</t>
+          <t>(53.4131821491301, 32.58973055001018)</t>
         </is>
       </c>
       <c r="S483" t="inlineStr">
@@ -27203,7 +27163,7 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>(52.10391915859807, 29.01143099998603)</t>
+          <t>(53.33434479915769, 32.03754029999193)</t>
         </is>
       </c>
       <c r="S484" t="inlineStr">
@@ -27483,7 +27443,7 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>(53.487512200355944, 29.34053381740347)</t>
+          <t>(53.487933500355986, 29.340502717403478)</t>
         </is>
       </c>
       <c r="S489" t="inlineStr">
@@ -27597,7 +27557,7 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>(53.487512200355944, 29.34053381740347)</t>
+          <t>(53.487933500355986, 29.340502717403478)</t>
         </is>
       </c>
       <c r="S491" t="inlineStr">
@@ -27981,7 +27941,7 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>(53.03938604998333, 26.26240709819529)</t>
+          <t>(53.039280397896434, 26.262755349224875)</t>
         </is>
       </c>
       <c r="S498" t="inlineStr">
@@ -28080,7 +28040,7 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>(53.59348128617806, 27.204252294245205)</t>
+          <t>(53.075282845701416, 27.225204954215926)</t>
         </is>
       </c>
       <c r="S500" t="inlineStr">
@@ -28791,7 +28751,7 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>(55.043200149451394, 29.4575109999958)</t>
+          <t>(54.18356617898472, 30.9457402451532)</t>
         </is>
       </c>
       <c r="S513" t="inlineStr">
@@ -28843,7 +28803,7 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>(55.16074862529473, 29.030029734740115)</t>
+          <t>(54.260935268860685, 31.19818495115516)</t>
         </is>
       </c>
       <c r="S514" t="inlineStr">
@@ -29004,7 +28964,7 @@
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>(54.2489363544055, 29.796458025429565)</t>
+          <t>(54.258553162846184, 29.793255340945787)</t>
         </is>
       </c>
       <c r="S517" t="inlineStr">
@@ -29118,7 +29078,7 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>(54.264383530367574, 30.992339124910814)</t>
+          <t>(54.264574472022474, 30.992567606632775)</t>
         </is>
       </c>
       <c r="S519" t="inlineStr">
@@ -29227,7 +29187,7 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>(53.59348128617806, 27.204252294245205)</t>
+          <t>(53.075282845701416, 27.225204954215926)</t>
         </is>
       </c>
       <c r="S521" t="inlineStr">
@@ -29284,7 +29244,7 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>(55.272374399525326, 28.746911750000002)</t>
+          <t>(55.786661799717486, 30.165350450012017)</t>
         </is>
       </c>
       <c r="S522" t="inlineStr">
@@ -29341,7 +29301,7 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>(52.39751079969703, 27.032456049933966)</t>
+          <t>(52.40204252380332, 27.030271332731864)</t>
         </is>
       </c>
       <c r="S523" t="inlineStr">
@@ -29455,7 +29415,7 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>(54.60151159938392, 26.883697350018576)</t>
+          <t>(52.599637881265735, 29.133781440824443)</t>
         </is>
       </c>
       <c r="S525" t="inlineStr">
@@ -29569,12 +29529,12 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>(52.21563754913975, 27.02371585000487)</t>
+          <t>(52.31555101542504, 26.618433653383757)</t>
         </is>
       </c>
       <c r="S527" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -29683,7 +29643,7 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>(52.19899145137997, 27.10806736987233)</t>
+          <t>(54.011807349220426, 30.174164399997373)</t>
         </is>
       </c>
       <c r="S529" t="inlineStr">
@@ -29738,16 +29698,6 @@
           <t xml:space="preserve">52 </t>
         </is>
       </c>
-      <c r="R530" t="inlineStr">
-        <is>
-          <t>(52.216951020817106, 27.021702036913208)</t>
-        </is>
-      </c>
-      <c r="S530" t="inlineStr">
-        <is>
-          <t>(True)</t>
-        </is>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -29797,7 +29747,7 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>(52.23133524739067, 30.857991817845797)</t>
+          <t>(53.32108790015329, 24.29949673320111)</t>
         </is>
       </c>
       <c r="S531" t="inlineStr">
@@ -29854,7 +29804,7 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>(55.41251001615832, 28.625964581695293)</t>
+          <t>(55.707388399418626, 27.5523044669495)</t>
         </is>
       </c>
       <c r="S532" t="inlineStr">
@@ -29966,16 +29916,6 @@
           <t xml:space="preserve">19 </t>
         </is>
       </c>
-      <c r="R534" t="inlineStr">
-        <is>
-          <t>(52.349891878848524, 26.9974434709119)</t>
-        </is>
-      </c>
-      <c r="S534" t="inlineStr">
-        <is>
-          <t>(False)</t>
-        </is>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -30072,7 +30012,7 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>(52.509317177198355, 26.755862184680595)</t>
+          <t>(52.47022024915413, 26.78669539999733)</t>
         </is>
       </c>
       <c r="S536" t="inlineStr">
@@ -30357,7 +30297,7 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>(52.26593324913344, 30.185847199985343)</t>
+          <t>(52.36816154913242, 26.47996039999655)</t>
         </is>
       </c>
       <c r="S541" t="inlineStr">
@@ -30642,7 +30582,7 @@
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>(52.25423934989437, 27.40346815015896)</t>
+          <t>(52.22148374926747, 27.503221249988325)</t>
         </is>
       </c>
       <c r="S546" t="inlineStr">
@@ -31041,7 +30981,7 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>(52.24452927150247, 26.806368715624902)</t>
+          <t>(52.244074971741085, 26.806220753531)</t>
         </is>
       </c>
       <c r="S553" t="inlineStr">
@@ -31155,7 +31095,7 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>(52.22688864926392, 27.482647500020878)</t>
+          <t>(52.226732055517644, 27.481465709767978)</t>
         </is>
       </c>
       <c r="S555" t="inlineStr">
@@ -31212,7 +31152,7 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>(52.815222971614105, 28.020011464853567)</t>
+          <t>(52.599637881265735, 29.133781440824443)</t>
         </is>
       </c>
       <c r="S556" t="inlineStr">
@@ -31267,16 +31207,6 @@
           <t xml:space="preserve">1а </t>
         </is>
       </c>
-      <c r="R557" t="inlineStr">
-        <is>
-          <t>(52.20620506454692, 27.008573767868327)</t>
-        </is>
-      </c>
-      <c r="S557" t="inlineStr">
-        <is>
-          <t>(True)</t>
-        </is>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -31440,7 +31370,7 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>(52.25040648868347, 26.828467520406573)</t>
+          <t>(52.31555101542504, 26.618433653383757)</t>
         </is>
       </c>
       <c r="S560" t="inlineStr">
@@ -31497,7 +31427,7 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>(52.19899145137997, 27.10806736987233)</t>
+          <t>(54.011807349220426, 30.174164399997373)</t>
         </is>
       </c>
       <c r="S561" t="inlineStr">
@@ -31953,7 +31883,7 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>(52.390505797243335, 23.824050587416274)</t>
+          <t>(52.39544804919627, 23.8250353999875)</t>
         </is>
       </c>
       <c r="S569" t="inlineStr">
@@ -32466,7 +32396,7 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>(52.151650349010914, 23.691822279974424)</t>
+          <t>(52.40453147306507, 23.848215239768756)</t>
         </is>
       </c>
       <c r="S578" t="inlineStr">
@@ -33249,7 +33179,7 @@
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>(52.259738649242664, 26.78561099998526)</t>
+          <t>(52.25996482600157, 26.785799496435093)</t>
         </is>
       </c>
       <c r="S592" t="inlineStr">
@@ -33643,7 +33573,7 @@
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>(52.24452927150247, 26.806368715624902)</t>
+          <t>(52.244074971741085, 26.806220753531)</t>
         </is>
       </c>
       <c r="S599" t="inlineStr">
@@ -33928,7 +33858,7 @@
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>(52.544114306794754, 30.989570593600835)</t>
+          <t>(52.54426214909825, 30.994284649997166)</t>
         </is>
       </c>
       <c r="S604" t="inlineStr">
@@ -34037,12 +33967,12 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>(53.33226684912239, 27.096901450002584)</t>
+          <t>(53.14876191588154, 27.093609538150144)</t>
         </is>
       </c>
       <c r="S606" t="inlineStr">
         <is>
-          <t>(True)</t>
+          <t>(False)</t>
         </is>
       </c>
     </row>
@@ -34094,7 +34024,7 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>(53.148818440106155, 27.09070852470216)</t>
+          <t>(53.150449549813274, 27.08829214986379)</t>
         </is>
       </c>
       <c r="S607" t="inlineStr">
@@ -34379,7 +34309,7 @@
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>(52.185406140578415, 25.15951080296265)</t>
+          <t>(52.18696703300727, 25.156812281759628)</t>
         </is>
       </c>
       <c r="S612" t="inlineStr">
@@ -34436,7 +34366,7 @@
       </c>
       <c r="R613" t="inlineStr">
         <is>
-          <t>(52.12384494918477, 28.174134800001458)</t>
+          <t>(52.11679239144065, 28.1887530304004)</t>
         </is>
       </c>
       <c r="S613" t="inlineStr">
@@ -34493,7 +34423,7 @@
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>(52.147063949208906, 25.53704825004216)</t>
+          <t>(52.14745984526049, 25.538957780580564)</t>
         </is>
       </c>
       <c r="S614" t="inlineStr">
@@ -35006,7 +34936,7 @@
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>(52.184632565572194, 25.170059380295328)</t>
+          <t>(52.18492365075073, 25.1697186298786)</t>
         </is>
       </c>
       <c r="S623" t="inlineStr">
@@ -35348,7 +35278,7 @@
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>(53.15059125361305, 27.092639447147125)</t>
+          <t>(53.150243225199084, 27.092373189958945)</t>
         </is>
       </c>
       <c r="S629" t="inlineStr">
@@ -35405,7 +35335,7 @@
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>(53.15082299928527, 27.091841199982046)</t>
+          <t>(53.15094135087589, 27.09146031699071)</t>
         </is>
       </c>
       <c r="S630" t="inlineStr">
@@ -35576,7 +35506,7 @@
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>(53.30972519543682, 28.06179632141496)</t>
+          <t>(52.89235249910897, 25.50009235)</t>
         </is>
       </c>
       <c r="S633" t="inlineStr">
@@ -35626,16 +35556,6 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="R634" t="inlineStr">
-        <is>
-          <t>(52.704413167594815, 25.427448182411666)</t>
-        </is>
-      </c>
-      <c r="S634" t="inlineStr">
-        <is>
-          <t>(False)</t>
-        </is>
-      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -35685,7 +35605,7 @@
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>(52.35476354912351, 25.1164201499992)</t>
+          <t>(52.3322154991482, 25.22896550001559)</t>
         </is>
       </c>
       <c r="S635" t="inlineStr">
@@ -35965,7 +35885,7 @@
       </c>
       <c r="R640" t="inlineStr">
         <is>
-          <t>(52.13415102222807, 25.54154325358217)</t>
+          <t>(52.133774287157756, 25.54071874247046)</t>
         </is>
       </c>
       <c r="S640" t="inlineStr">
@@ -36312,7 +36232,7 @@
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>(52.181484601239966, 25.182792104474892)</t>
+          <t>(52.18492365075073, 25.1697186298786)</t>
         </is>
       </c>
       <c r="S646" t="inlineStr">
@@ -36369,7 +36289,7 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>(52.187842462656526, 25.149567854992515)</t>
+          <t>(52.18583160394927, 25.164866531941154)</t>
         </is>
       </c>
       <c r="S647" t="inlineStr">
@@ -36986,7 +36906,7 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>(52.815217495830886, 29.40902597748822)</t>
+          <t>(52.81201802170431, 29.409468881138476)</t>
         </is>
       </c>
       <c r="S658" t="inlineStr">
@@ -37142,7 +37062,7 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>(54.44822591154334, 27.2017057194683)</t>
+          <t>(54.29168464928059, 26.966248050007817)</t>
         </is>
       </c>
       <c r="S661" t="inlineStr">
@@ -37199,7 +37119,7 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>(52.557197652459394, 24.456664147277305)</t>
+          <t>(52.55776834701303, 24.450698230037425)</t>
         </is>
       </c>
       <c r="S662" t="inlineStr">
@@ -37256,7 +37176,7 @@
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>(55.009376300748066, 28.878471316847953)</t>
+          <t>(53.22824151506501, 27.45372860952469)</t>
         </is>
       </c>
       <c r="S663" t="inlineStr">
@@ -37365,7 +37285,7 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>(52.815217495830886, 29.40902597748822)</t>
+          <t>(52.81201802170431, 29.409468881138476)</t>
         </is>
       </c>
       <c r="S665" t="inlineStr">
@@ -37417,7 +37337,7 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>(52.64149004910368, 29.743575349993584)</t>
+          <t>(52.63802237594013, 29.751564564777386)</t>
         </is>
       </c>
       <c r="S666" t="inlineStr">
@@ -37469,7 +37389,7 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>(52.64149004910368, 29.743575349993584)</t>
+          <t>(52.63802237594013, 29.751564564777386)</t>
         </is>
       </c>
       <c r="S667" t="inlineStr">
@@ -37573,7 +37493,7 @@
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>(52.623188006496434, 29.74602737573139)</t>
+          <t>(52.62338922835814, 29.74673101575459)</t>
         </is>
       </c>
       <c r="S669" t="inlineStr">
@@ -37796,7 +37716,7 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>(52.63073597142865, 29.74938827998415)</t>
+          <t>(52.63050052173948, 29.748633098791657)</t>
         </is>
       </c>
       <c r="S673" t="inlineStr">
@@ -37905,7 +37825,7 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>(52.804319668001526, 29.4183018255499)</t>
+          <t>(52.6382349462432, 29.737493720212772)</t>
         </is>
       </c>
       <c r="S675" t="inlineStr">
@@ -38093,7 +38013,7 @@
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>(54.321693342171564, 29.17889807584192)</t>
+          <t>(54.33527219929838, 29.123010300005458)</t>
         </is>
       </c>
       <c r="S679" t="inlineStr">
@@ -38368,7 +38288,7 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>(52.637175981586374, 29.738966756162707)</t>
+          <t>(52.63802237594013, 29.751564564777386)</t>
         </is>
       </c>
       <c r="S684" t="inlineStr">
@@ -38425,7 +38345,7 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>(52.815217495830886, 29.40902597748822)</t>
+          <t>(52.81201802170431, 29.409468881138476)</t>
         </is>
       </c>
       <c r="S685" t="inlineStr">
@@ -38591,7 +38511,7 @@
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>(55.530785135442635, 27.656998073547644)</t>
+          <t>(52.292672599119896, 26.322692349999997)</t>
         </is>
       </c>
       <c r="S688" t="inlineStr">
@@ -38762,7 +38682,7 @@
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>(52.637175981586374, 29.738966756162707)</t>
+          <t>(52.63802237594013, 29.751564564777386)</t>
         </is>
       </c>
       <c r="S691" t="inlineStr">
@@ -39094,7 +39014,7 @@
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>(52.74388279625357, 29.49785317746548)</t>
+          <t>(52.636458704259525, 29.731911915515013)</t>
         </is>
       </c>
       <c r="S697" t="inlineStr">
@@ -39146,7 +39066,7 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>(52.204257975252666, 30.952888787428588)</t>
+          <t>(52.207376099132475, 30.987453200004587)</t>
         </is>
       </c>
       <c r="S698" t="inlineStr">
@@ -39198,7 +39118,7 @@
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>(52.462777758949535, 30.797022399056637)</t>
+          <t>(52.458851782755914, 30.783939984043023)</t>
         </is>
       </c>
       <c r="S699" t="inlineStr">
@@ -39535,7 +39455,7 @@
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>(52.1882791995373, 25.158706779920273)</t>
+          <t>(52.189582067351374, 25.163179866036597)</t>
         </is>
       </c>
       <c r="S705" t="inlineStr">
@@ -39758,7 +39678,7 @@
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>(53.15038469588425, 27.08940712035751)</t>
+          <t>(53.150523947545125, 27.089899982230637)</t>
         </is>
       </c>
       <c r="S709" t="inlineStr">
@@ -39924,7 +39844,7 @@
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>(52.147063949208906, 25.53704825004216)</t>
+          <t>(52.14745984526049, 25.538957780580564)</t>
         </is>
       </c>
       <c r="S712" t="inlineStr">
@@ -39981,7 +39901,7 @@
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>(52.147063949208906, 25.53704825004216)</t>
+          <t>(52.14745984526049, 25.538957780580564)</t>
         </is>
       </c>
       <c r="S713" t="inlineStr">
@@ -40365,7 +40285,7 @@
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>(52.73205281732358, 26.942480693497824)</t>
+          <t>(52.727603319425924, 26.96897442056685)</t>
         </is>
       </c>
       <c r="S720" t="inlineStr">
@@ -40417,7 +40337,7 @@
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>(53.43049196933222, 30.98332931441937)</t>
+          <t>(53.42971301487798, 30.983248581009207)</t>
         </is>
       </c>
       <c r="S721" t="inlineStr">
@@ -40531,7 +40451,7 @@
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>(53.44289619918313, 31.001296299999424)</t>
+          <t>(53.44348715238815, 30.998147578031826)</t>
         </is>
       </c>
       <c r="S723" t="inlineStr">
@@ -40588,7 +40508,7 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>(53.44289619918313, 31.001296299999424)</t>
+          <t>(53.44348715238815, 30.998147578031826)</t>
         </is>
       </c>
       <c r="S724" t="inlineStr">
@@ -40645,7 +40565,7 @@
       </c>
       <c r="R725" t="inlineStr">
         <is>
-          <t>(53.29465990650995, 30.72519457148816)</t>
+          <t>(53.43588855191643, 30.993825981105317)</t>
         </is>
       </c>
       <c r="S725" t="inlineStr">
@@ -40759,7 +40679,7 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>(54.50103504931423, 28.151253650000932)</t>
+          <t>(52.73696243269509, 26.442948733987578)</t>
         </is>
       </c>
       <c r="S727" t="inlineStr">
@@ -40925,7 +40845,7 @@
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>(53.655984825730975, 30.23671768768123)</t>
+          <t>(52.98187674912452, 29.9305704000013)</t>
         </is>
       </c>
       <c r="S730" t="inlineStr">
@@ -41143,7 +41063,7 @@
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>(54.78283692995867, 27.25558330995629)</t>
+          <t>(54.794581899388476, 29.750292750003265)</t>
         </is>
       </c>
       <c r="S734" t="inlineStr">
@@ -41195,7 +41115,7 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>(53.07821044911204, 27.301948750005675)</t>
+          <t>(53.57378629152503, 30.870662604945736)</t>
         </is>
       </c>
       <c r="S735" t="inlineStr">
@@ -41361,7 +41281,7 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>(54.50039584689815, 28.141019429268518)</t>
+          <t>(52.73696243269509, 26.442948733987578)</t>
         </is>
       </c>
       <c r="S738" t="inlineStr">
@@ -41646,7 +41566,7 @@
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>(53.521334668914385, 30.229643267671122)</t>
+          <t>(53.52093624124546, 30.233691824179214)</t>
         </is>
       </c>
       <c r="S743" t="inlineStr">
@@ -41807,7 +41727,7 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>(53.521334668914385, 30.229643267671122)</t>
+          <t>(53.52093624124546, 30.233691824179214)</t>
         </is>
       </c>
       <c r="S746" t="inlineStr">
@@ -41859,7 +41779,7 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>(53.521334668914385, 30.229643267671122)</t>
+          <t>(53.52093624124546, 30.233691824179214)</t>
         </is>
       </c>
       <c r="S747" t="inlineStr">
@@ -41911,7 +41831,7 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>(53.526137023364676, 30.221268346993437)</t>
+          <t>(53.52705976363746, 30.222608823751344)</t>
         </is>
       </c>
       <c r="S748" t="inlineStr">
@@ -41963,7 +41883,7 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>(56.00954191574866, 29.150697727979804)</t>
+          <t>(53.533363944402375, 30.358432978102602)</t>
         </is>
       </c>
       <c r="S749" t="inlineStr">
@@ -42191,7 +42111,7 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>(52.63608397951899, 26.188487985091484)</t>
+          <t>(52.62492614629467, 26.140895626382814)</t>
         </is>
       </c>
       <c r="S753" t="inlineStr">
@@ -42305,7 +42225,7 @@
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>(53.521334668914385, 30.229643267671122)</t>
+          <t>(53.52093624124546, 30.233691824179214)</t>
         </is>
       </c>
       <c r="S755" t="inlineStr">
@@ -42362,7 +42282,7 @@
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>(53.526137023364676, 30.221268346993437)</t>
+          <t>(53.52705976363746, 30.222608823751344)</t>
         </is>
       </c>
       <c r="S756" t="inlineStr">
@@ -42419,7 +42339,7 @@
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>(53.52148501495022, 30.244436365593906)</t>
+          <t>(53.52316277273776, 30.244007889096096)</t>
         </is>
       </c>
       <c r="S757" t="inlineStr">
@@ -42580,7 +42500,7 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>(53.51121455249393, 29.832703233836252)</t>
+          <t>(53.50287392078142, 29.84896625724191)</t>
         </is>
       </c>
       <c r="S760" t="inlineStr">
@@ -42902,7 +42822,7 @@
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>(52.7569207231016, 26.43012522274445)</t>
+          <t>(52.75715175550104, 26.4298085332373)</t>
         </is>
       </c>
       <c r="S766" t="inlineStr">
@@ -43053,7 +42973,7 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>(55.62173276560571, 30.14917018381048)</t>
+          <t>(55.347143316691024, 28.997739161381254)</t>
         </is>
       </c>
       <c r="S769" t="inlineStr">
@@ -43214,7 +43134,7 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>(54.20280787281715, 30.298141417123684)</t>
+          <t>(54.20246468959125, 30.300308190561587)</t>
         </is>
       </c>
       <c r="S772" t="inlineStr">
@@ -43328,7 +43248,7 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>(52.08149444525555, 29.187131972388013)</t>
+          <t>(52.02865578833287, 29.22779640640986)</t>
         </is>
       </c>
       <c r="S774" t="inlineStr">
@@ -43385,7 +43305,7 @@
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>(51.78693005992597, 24.065134951889725)</t>
+          <t>(51.786398676073226, 24.066251855057757)</t>
         </is>
       </c>
       <c r="S775" t="inlineStr">
@@ -43442,7 +43362,7 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>(51.787170122354965, 24.05334576564307)</t>
+          <t>(51.801342749207066, 24.062435350005437)</t>
         </is>
       </c>
       <c r="S776" t="inlineStr">
@@ -43499,7 +43419,7 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>(52.10765079555507, 25.627602873340624)</t>
+          <t>(53.769736749202735, 29.3405978999959)</t>
         </is>
       </c>
       <c r="S777" t="inlineStr">
@@ -43774,7 +43694,7 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>(54.20457989782732, 30.297700332452383)</t>
+          <t>(54.22671090394457, 30.292889399830027)</t>
         </is>
       </c>
       <c r="S782" t="inlineStr">
@@ -43888,7 +43808,7 @@
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>(53.27062928520516, 29.474494975117903)</t>
+          <t>(53.27086755403087, 29.473849548899707)</t>
         </is>
       </c>
       <c r="S784" t="inlineStr">
@@ -44059,7 +43979,7 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>(54.036175799217354, 30.46512965000776)</t>
+          <t>(54.232060673187846, 30.277876576496062)</t>
         </is>
       </c>
       <c r="S787" t="inlineStr">
@@ -44401,7 +44321,7 @@
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>(54.207174833261625, 30.288356012945314)</t>
+          <t>(54.22671090394457, 30.292889399830027)</t>
         </is>
       </c>
       <c r="S793" t="inlineStr">
@@ -44567,7 +44487,7 @@
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>(53.80706334917004, 30.96865924999604)</t>
+          <t>(53.806742486503325, 30.968387325495904)</t>
         </is>
       </c>
       <c r="S796" t="inlineStr">
@@ -44619,7 +44539,7 @@
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>(53.709989612436, 31.725835264061924)</t>
+          <t>(53.71061970961866, 31.726136704795593)</t>
         </is>
       </c>
       <c r="S797" t="inlineStr">
@@ -44676,7 +44596,7 @@
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>(54.006839299221255, 31.734893700046854)</t>
+          <t>(53.99879812098344, 31.731296948407127)</t>
         </is>
       </c>
       <c r="S798" t="inlineStr">
@@ -44790,7 +44710,7 @@
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>(53.96528429926835, 31.033178900021532)</t>
+          <t>(53.965577291002994, 31.033243229864002)</t>
         </is>
       </c>
       <c r="S800" t="inlineStr">
@@ -44904,7 +44824,7 @@
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>(53.806167949583894, 30.97585089998977)</t>
+          <t>(53.80661219922936, 30.97584544997914)</t>
         </is>
       </c>
       <c r="S802" t="inlineStr">
@@ -45283,7 +45203,7 @@
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>(53.81309087694192, 27.398578339558515)</t>
+          <t>(52.424230649167555, 23.392440350020358)</t>
         </is>
       </c>
       <c r="S809" t="inlineStr">
@@ -45335,7 +45255,7 @@
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>(53.82193875208248, 27.459842332420774)</t>
+          <t>(55.45197584959648, 30.901845350001306)</t>
         </is>
       </c>
       <c r="S810" t="inlineStr">
@@ -45610,7 +45530,7 @@
       </c>
       <c r="R815" t="inlineStr">
         <is>
-          <t>(53.32576085240443, 28.743444233225684)</t>
+          <t>(53.36211844916014, 28.686892550019227)</t>
         </is>
       </c>
       <c r="S815" t="inlineStr">
@@ -45895,7 +45815,7 @@
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>(52.89185056384769, 28.68206133531474)</t>
+          <t>(52.87880759912393, 28.704335249997715)</t>
         </is>
       </c>
       <c r="S820" t="inlineStr">
@@ -46004,7 +45924,7 @@
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>(52.913933603737405, 28.69318952898026)</t>
+          <t>(52.90086773592615, 28.686728406347104)</t>
         </is>
       </c>
       <c r="S822" t="inlineStr">
@@ -46061,7 +45981,7 @@
       </c>
       <c r="R823" t="inlineStr">
         <is>
-          <t>(55.488117639416295, 28.780541786334002)</t>
+          <t>(55.48408421136332, 28.78774767175808)</t>
         </is>
       </c>
       <c r="S823" t="inlineStr">
@@ -46118,7 +46038,7 @@
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>(55.488117639416295, 28.780541786334002)</t>
+          <t>(55.48408421136332, 28.78774767175808)</t>
         </is>
       </c>
       <c r="S824" t="inlineStr">
@@ -46175,7 +46095,7 @@
       </c>
       <c r="R825" t="inlineStr">
         <is>
-          <t>(55.488117639416295, 28.780541786334002)</t>
+          <t>(55.48408421136332, 28.78774767175808)</t>
         </is>
       </c>
       <c r="S825" t="inlineStr">
@@ -46289,7 +46209,7 @@
       </c>
       <c r="R827" t="inlineStr">
         <is>
-          <t>(52.911502881674764, 28.689256215072593)</t>
+          <t>(52.912500149372875, 28.688119199999026)</t>
         </is>
       </c>
       <c r="S827" t="inlineStr">
@@ -46341,7 +46261,7 @@
       </c>
       <c r="R828" t="inlineStr">
         <is>
-          <t>(55.62139154783443, 29.5068767160595)</t>
+          <t>(53.484443139118895, 30.096669364999755)</t>
         </is>
       </c>
       <c r="S828" t="inlineStr">
@@ -46507,7 +46427,7 @@
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>(52.27685907472561, 29.378805221946376)</t>
+          <t>(52.27432635630762, 29.380983763663085)</t>
         </is>
       </c>
       <c r="S831" t="inlineStr">
@@ -46673,7 +46593,7 @@
       </c>
       <c r="R834" t="inlineStr">
         <is>
-          <t>(51.79851624935705, 29.507288450024735)</t>
+          <t>(51.796389602297076, 29.50662397913862)</t>
         </is>
       </c>
       <c r="S834" t="inlineStr">
@@ -46782,7 +46702,7 @@
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>(53.16450193049631, 29.16662623882184)</t>
+          <t>(53.164979666109794, 29.166319611394552)</t>
         </is>
       </c>
       <c r="S836" t="inlineStr">
@@ -46834,7 +46754,7 @@
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>(53.142261249588394, 29.233746550130064)</t>
+          <t>(53.14193213445995, 29.233057259188637)</t>
         </is>
       </c>
       <c r="S837" t="inlineStr">
@@ -46943,7 +46863,7 @@
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>(53.27334879915628, 29.47297334999407)</t>
+          <t>(53.27300325304033, 29.4725757414335)</t>
         </is>
       </c>
       <c r="S839" t="inlineStr">
@@ -47052,7 +46972,7 @@
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>(54.26351080004477, 27.12056122946065)</t>
+          <t>(54.60829575191797, 27.109079129677138)</t>
         </is>
       </c>
       <c r="S841" t="inlineStr">
@@ -47166,7 +47086,7 @@
       </c>
       <c r="R843" t="inlineStr">
         <is>
-          <t>(52.030172430791154, 29.229471872786604)</t>
+          <t>(52.03040304786931, 29.229782282158677)</t>
         </is>
       </c>
       <c r="S843" t="inlineStr">
@@ -47223,7 +47143,7 @@
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>(51.78920949734321, 24.079307566003653)</t>
+          <t>(51.78956624940127, 24.079635600060584)</t>
         </is>
       </c>
       <c r="S844" t="inlineStr">
@@ -47456,7 +47376,7 @@
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>(53.57476591676538, 31.390032151893617)</t>
+          <t>(53.58523023194829, 31.416038291172384)</t>
         </is>
       </c>
       <c r="S848" t="inlineStr">
@@ -47503,7 +47423,7 @@
       </c>
       <c r="R849" t="inlineStr">
         <is>
-          <t>(55.24480837268144, 30.108528893917097)</t>
+          <t>(52.354717341116796, 31.439372924505754)</t>
         </is>
       </c>
       <c r="S849" t="inlineStr">
@@ -47902,7 +47822,7 @@
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>(54.377440022247676, 27.462798320880022)</t>
+          <t>(53.53140494916731, 31.219427349998774)</t>
         </is>
       </c>
       <c r="S856" t="inlineStr">
@@ -47954,7 +47874,7 @@
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>(53.667820650633715, 31.253089383555928)</t>
+          <t>(53.665544882438375, 31.252165755237556)</t>
         </is>
       </c>
       <c r="S857" t="inlineStr">
@@ -48011,7 +47931,7 @@
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>(55.38604261590397, 29.023899476018894)</t>
+          <t>(53.63258535834539, 31.554075281037235)</t>
         </is>
       </c>
       <c r="S858" t="inlineStr">
